--- a/lab4/pipeline.xlsx
+++ b/lab4/pipeline.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$29</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Cycle</t>
   </si>
@@ -272,6 +274,28 @@
   </si>
   <si>
     <t>The addition operation takes 2 pipeline stages.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Red operation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refers to spurious operations that cannot be prevent</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -512,20 +536,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,28 +852,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,83 +965,83 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>8</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25">
         <v>6</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="24">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25">
         <v>4</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="24">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25">
         <v>2</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="25">
         <v>0</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="24">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="25">
         <v>0</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28">
         <v>3</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28">
         <v>4</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27">
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28">
         <v>5</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27">
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28">
         <v>6</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
     </row>
     <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1341,7 +1373,7 @@
       <c r="G22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1355,6 +1387,9 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
@@ -1498,7 +1533,7 @@
     <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lab4/pipeline.xlsx
+++ b/lab4/pipeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Cycle</t>
   </si>
@@ -264,16 +264,7 @@
     <t>We will ignore the the fact that sides A and B are both used at the same time and just consider the iterations.</t>
   </si>
   <si>
-    <t>The loading operation takes 2 pipeline stages.</t>
-  </si>
-  <si>
-    <t>The multiply operations takes 3 pipleine stages, but the results can be used in the same iteration</t>
-  </si>
-  <si>
     <t>Each iteration of the loop will move the pipeline stages forward by one</t>
-  </si>
-  <si>
-    <t>The addition operation takes 2 pipeline stages.</t>
   </si>
   <si>
     <r>
@@ -296,6 +287,18 @@
       </rPr>
       <t>refers to spurious operations that cannot be prevent</t>
     </r>
+  </si>
+  <si>
+    <t>The loading operation (L) takes 2 pipeline stages.</t>
+  </si>
+  <si>
+    <t>The multiply operation (x)  takes 3 pipleine stages, but the results can be used in the same iteration</t>
+  </si>
+  <si>
+    <t>The addition operation (+)  takes 2 pipeline stages.</t>
+  </si>
+  <si>
+    <t>The number indicates the ith iteration of the MAC operation</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1303,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,7 +1351,7 @@
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,7 +1391,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1412,6 +1415,9 @@
       </c>
       <c r="G24" s="19" t="s">
         <v>69</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
